--- a/data/hotels_by_city/Houston/Houston_shard_324.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d3627162-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Energy-Corridor-West-Oaks.h2233211.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531275090236&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=a90875d5-cd18-4745-8bf7-fb72d518c42f&amp;mctc=9&amp;exp_dp=84.15&amp;exp_ts=1531275090919&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,544 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r589338608-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>3627162</t>
+  </si>
+  <si>
+    <t>589338608</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Would definately come back</t>
+  </si>
+  <si>
+    <t>I came here sometime last year and it was okay but it was not as impressive as my recent stay last week . The reception was great , rooms were quite spacious and very neat . I absolutely loved my stay and i am definitely coming back again with my husband. I also love the location and scenery .MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kevin L, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I came here sometime last year and it was okay but it was not as impressive as my recent stay last week . The reception was great , rooms were quite spacious and very neat . I absolutely loved my stay and i am definitely coming back again with my husband. I also love the location and scenery .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r546301627-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546301627</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Horrible Housekeeping Experience</t>
+  </si>
+  <si>
+    <t>In September, I wrote a review that my husband and I were disappointed and frustrated with housekeeping at this hotel. Recently we stayed here again for two weeks for convenience of location to the properties we were helping rebuild in Houston. The housekeeping was worse than in September. We checked in on a Tuesday and, upon returning to the hotel room on Wednesday evening, saw that housekeeping left no replacement bags for the ice bucket. My husband went down to the front desk staff and requested that housekeeping replace the bags on a daily basis. Unfortunately, after five days of requesting plastic bags, we gave up and just continued to obtain them from the front desk. Also, no vacuuming was done in the room the entire time we stayed at the hotel, and the toilet was not cleaned daily. We requested that the manager call us to discuss the housekeeping issues, but never received a phone call. Also, we could not access the entry doors using our room key cards. The ice machine was out of order on the second floor for the entire two weeks.The front desk staff was always polite and tried to be helpful, but were ineffective in resolving our issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2017</t>
+  </si>
+  <si>
+    <t>In September, I wrote a review that my husband and I were disappointed and frustrated with housekeeping at this hotel. Recently we stayed here again for two weeks for convenience of location to the properties we were helping rebuild in Houston. The housekeeping was worse than in September. We checked in on a Tuesday and, upon returning to the hotel room on Wednesday evening, saw that housekeeping left no replacement bags for the ice bucket. My husband went down to the front desk staff and requested that housekeeping replace the bags on a daily basis. Unfortunately, after five days of requesting plastic bags, we gave up and just continued to obtain them from the front desk. Also, no vacuuming was done in the room the entire time we stayed at the hotel, and the toilet was not cleaned daily. We requested that the manager call us to discuss the housekeeping issues, but never received a phone call. Also, we could not access the entry doors using our room key cards. The ice machine was out of order on the second floor for the entire two weeks.The front desk staff was always polite and tried to be helpful, but were ineffective in resolving our issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r541591841-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541591841</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Non-Guests Sneak In</t>
+  </si>
+  <si>
+    <t>Upon arrival, my coworker couldn't get into her room because there was someone in it. The receptionist mentioned that there were people that often sneak into rooms and secure the door until they are discovered. They also mentioned that there are non-guests that occupy the halls at times. As the night was sold out- they called 'security' aka the maintenance man at home to have the guests removed. Somehow they 'found' a room for us 15 minutes later. 1. Did you even clean it? 2. RANDOM PEOPLE IN YOUR HALLS? Are you kidding me? We chose to leave after 45 minutes and they will not offer us a refund because they say it was a computer 'glitch'. I call BS. Not safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival, my coworker couldn't get into her room because there was someone in it. The receptionist mentioned that there were people that often sneak into rooms and secure the door until they are discovered. They also mentioned that there are non-guests that occupy the halls at times. As the night was sold out- they called 'security' aka the maintenance man at home to have the guests removed. Somehow they 'found' a room for us 15 minutes later. 1. Did you even clean it? 2. RANDOM PEOPLE IN YOUR HALLS? Are you kidding me? We chose to leave after 45 minutes and they will not offer us a refund because they say it was a computer 'glitch'. I call BS. Not safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r385609407-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385609407</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>stealing my money</t>
+  </si>
+  <si>
+    <t>Unfortunately I stayed at this Holiday Inn Express in Houston for one night. Found a charge on my credit card for 150.00 for a coffee pot and a towel they said was missing. Don't drink coffee.Didn't look at the coffee pot ,touch it or use it. don't know if it was even in the room .Called hotel to inquire about the charge. Manager said house keeping said items was not there, were charging you..No one thinks house keeping could have made a mistake.If customers are going held responsible for all items in the room, there needs to be a inventory list given at check in to make sure all items are in the room or have manager do a walk through the room with customer so both parties can confirm all items are in the room .-like a towel count and a coffee potand corp office is of no help and all they said was call the hotel you stayed it .Find a different hotel if you can or stay at your own risk.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Unfortunately I stayed at this Holiday Inn Express in Houston for one night. Found a charge on my credit card for 150.00 for a coffee pot and a towel they said was missing. Don't drink coffee.Didn't look at the coffee pot ,touch it or use it. don't know if it was even in the room .Called hotel to inquire about the charge. Manager said house keeping said items was not there, were charging you..No one thinks house keeping could have made a mistake.If customers are going held responsible for all items in the room, there needs to be a inventory list given at check in to make sure all items are in the room or have manager do a walk through the room with customer so both parties can confirm all items are in the room .-like a towel count and a coffee potand corp office is of no help and all they said was call the hotel you stayed it .Find a different hotel if you can or stay at your own risk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r374044607-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374044607</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed there for a business trip in May. The hotel is next to George Bush Park so it was quiet but still near a lot of restaurants and shopping. Our room was very clean and spacious.  The breakfasts were good and my husband loved the pancake machine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r370654382-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370654382</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>Worst Customer Service Ever!!!!</t>
+  </si>
+  <si>
+    <t>I stayed there for one night.  They  charged me for 2.  I have been trying to resolve this for a week now.  The manager refuses to talk to me.  The front desk keeps saying she is not there or too busy.  I keep leaving messages and calling back.  However, no resolution, no call back.  I travel for business, and the customer service I experienced is horrendous.  If you have to fill out expense reports or care if you are double charged, do not stay at this hotel--they don't care!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there for one night.  They  charged me for 2.  I have been trying to resolve this for a week now.  The manager refuses to talk to me.  The front desk keeps saying she is not there or too busy.  I keep leaving messages and calling back.  However, no resolution, no call back.  I travel for business, and the customer service I experienced is horrendous.  If you have to fill out expense reports or care if you are double charged, do not stay at this hotel--they don't care!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r327677811-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327677811</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Nice location, road access a little odd</t>
+  </si>
+  <si>
+    <t>Nice location for staying in the western part of Houston. The location is just northwest of the Westheimer-SH6 intersection. The only inconvenience is that you can only get onto SH-6 going southbound or Westheimer going westbound. If you need to go some other directions it takes a little maneuvering.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Lopezm28, Loyalty Champion at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Nice location for staying in the western part of Houston. The location is just northwest of the Westheimer-SH6 intersection. The only inconvenience is that you can only get onto SH-6 going southbound or Westheimer going westbound. If you need to go some other directions it takes a little maneuvering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r318149595-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318149595</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Not Bad for the Money</t>
+  </si>
+  <si>
+    <t>First, this property was chosen for its proximity to family.  With that said, Holiday Inn Express properties are usually decent places to stay, and this one was no exception.  This one gave me a good rate, provided a comfortable, clean room and an decent complimentary breakfast.  The staff was congenial, professional and accommodating.  We will be staying there again when we return to visit that area of Houston.  There is one decided down side to the location.  It is located on one of the busiest streets in West Houston, and getting in or out of the hotel during rush hour requires some knowledge of the roadways.  The best way to exit the property during high traffic periods is to exit the property on Barker Oaks (away from Hwy. 6), and use Pipping Rock Lane (one block south of hotel) to cross or enter Hwy 6.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Lopezm28, Front Desk Lead at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>First, this property was chosen for its proximity to family.  With that said, Holiday Inn Express properties are usually decent places to stay, and this one was no exception.  This one gave me a good rate, provided a comfortable, clean room and an decent complimentary breakfast.  The staff was congenial, professional and accommodating.  We will be staying there again when we return to visit that area of Houston.  There is one decided down side to the location.  It is located on one of the busiest streets in West Houston, and getting in or out of the hotel during rush hour requires some knowledge of the roadways.  The best way to exit the property during high traffic periods is to exit the property on Barker Oaks (away from Hwy. 6), and use Pipping Rock Lane (one block south of hotel) to cross or enter Hwy 6.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r295083567-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295083567</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Excellent one night stay</t>
+  </si>
+  <si>
+    <t>Hotel tuck behind strip mall hard to located, I didn't see any hotel sign on main road,we check in really late-after 11pm , main entry door was lock, have to wait for hotel staff let us in... check in was little slow not the front desk fault the guy in front of us asking too many question took 15 mins before our turn to checkin, hotel and room  clean and well lit , breakfast was good, overall we have very pleasant stay....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lopezm28, Lead Champion at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Hotel tuck behind strip mall hard to located, I didn't see any hotel sign on main road,we check in really late-after 11pm , main entry door was lock, have to wait for hotel staff let us in... check in was little slow not the front desk fault the guy in front of us asking too many question took 15 mins before our turn to checkin, hotel and room  clean and well lit , breakfast was good, overall we have very pleasant stay....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r261159874-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261159874</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Looking forward to our next stay.</t>
+  </si>
+  <si>
+    <t>Wonderful service from the get-go.  Had a couple of conversations with staff on the phone because we had to change our dates because of bad weather in our departure city.  Felt like we were being greeted by family when we finally arrived late on a Friday evening.  During our five night stay, the room was very clean.  Beds and pillows were comfortable.  Nice large screen TV. We chose this location because it's near the house of the people we were visiting. Included was breakfast every day--eggs, biscuits, sausage, bagels with toppings, orange juice, milk, coffee, tea, pastries, muffins, fruit. I prefer this to finding a restaurant for breakfast. ALL of the staff were friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Wonderful service from the get-go.  Had a couple of conversations with staff on the phone because we had to change our dates because of bad weather in our departure city.  Felt like we were being greeted by family when we finally arrived late on a Friday evening.  During our five night stay, the room was very clean.  Beds and pillows were comfortable.  Nice large screen TV. We chose this location because it's near the house of the people we were visiting. Included was breakfast every day--eggs, biscuits, sausage, bagels with toppings, orange juice, milk, coffee, tea, pastries, muffins, fruit. I prefer this to finding a restaurant for breakfast. ALL of the staff were friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r246355049-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246355049</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xmas vacation </t>
+  </si>
+  <si>
+    <t>We stayed there for three days.  We stayed in the double suite which was awesome, it was spacious and the bathroom was very spacious. The staff was courteous and the complimentary breakfast was decent. The location was great, it was in walking distance to west oaks mall as well as to restaurants like Chili'S, Logan's Roadhouse, and Joes Crabshack. If u had your own vehicle it the hotel is 20 minutes from Memorial City Mall and 10 minutes to I-10.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r243011406-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243011406</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Would like to rate better, but...</t>
+  </si>
+  <si>
+    <t>First the good news. Check in: just fine. Room: clean. Restaurant options: multiple nearby, such as Joe's Crab Shack and Logan's Roadhouse. So why the low rating? This is the first hotel I have stayed in where the alarm clock turns off with the lights. And no backup battery, so when you set the clock, then leave the room... reset again. The business associate I was with had same experience with his room. I usually stay in Hilton or Carlson properties... so was really puzzled to have this experience. Especially with the years that Holiday Inn has been a brand. So while food options are great (including IHOP and Waffle House short drive away), my lasting impression for this location is a flashing clock display. Don't turn off the wall switch.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2014</t>
+  </si>
+  <si>
+    <t>First the good news. Check in: just fine. Room: clean. Restaurant options: multiple nearby, such as Joe's Crab Shack and Logan's Roadhouse. So why the low rating? This is the first hotel I have stayed in where the alarm clock turns off with the lights. And no backup battery, so when you set the clock, then leave the room... reset again. The business associate I was with had same experience with his room. I usually stay in Hilton or Carlson properties... so was really puzzled to have this experience. Especially with the years that Holiday Inn has been a brand. So while food options are great (including IHOP and Waffle House short drive away), my lasting impression for this location is a flashing clock display. Don't turn off the wall switch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r222997150-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222997150</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>One Of The Better Holiday Inn Express Hotels</t>
+  </si>
+  <si>
+    <t>My oldest son and I stayed here this past weekend while helping my daughter move to a new apartment in the Energy Corridor area.  We booked this hotel at the last minute on a Friday evening after calling a few hotels in the area and looking at reviews online.  We obtained a very reasonable rate by calling the hotel directly.  Upon checking in late that evening, I was pleasantly surprised to see how large the room was compared to other HIE hotels I have stayed at in the past.  We had two queen beds with ample room including a chair and ottoman, a separate desk area as well as a fairly large refrigerator and microwave tucked away in a cabinet.  These rooms do not seem as narrow as some other HIE hotels.  The bathroom was also a reasonable size with some added shelving to help keep toiletries from crowding the countertop.  I was also able to obtain a shower cap from the front desk with no problem.
+The hotel sits back off the road next to another hotel/extended stay.  Remarkably, it was very quiet.  We had a second floor room towards the end of the hallway.  There was virtually no outside noise from either the hallway or outside the hotel.  I don't believe the HIE hotel was full but it was very quiet the entire night as well as the next morning.
+Security did not seem to be an issue....My oldest son and I stayed here this past weekend while helping my daughter move to a new apartment in the Energy Corridor area.  We booked this hotel at the last minute on a Friday evening after calling a few hotels in the area and looking at reviews online.  We obtained a very reasonable rate by calling the hotel directly.  Upon checking in late that evening, I was pleasantly surprised to see how large the room was compared to other HIE hotels I have stayed at in the past.  We had two queen beds with ample room including a chair and ottoman, a separate desk area as well as a fairly large refrigerator and microwave tucked away in a cabinet.  These rooms do not seem as narrow as some other HIE hotels.  The bathroom was also a reasonable size with some added shelving to help keep toiletries from crowding the countertop.  I was also able to obtain a shower cap from the front desk with no problem.The hotel sits back off the road next to another hotel/extended stay.  Remarkably, it was very quiet.  We had a second floor room towards the end of the hallway.  There was virtually no outside noise from either the hallway or outside the hotel.  I don't believe the HIE hotel was full but it was very quiet the entire night as well as the next morning.Security did not seem to be an issue.  The front doors were locked when we checked in but we were buzzed in promptly when the front desk clerk recognized we were a late check-in.  The parking lot was well-lit and we felt like the car was fairly safe in the lot.Breakfast was actually a pleasant surprise.  We did not go down for breakfast until 9:50am on Saturday (open till 10:00am).  I fully expected there to be little available.  There was a large family reunion type group of people in the dining area.  Everything was fully stocked!  All hot items (cheese omelets, sausages) were available as well as everything else (including the pancakes and cinnamon rolls).  Healthy options were also available including fruit, yogurt (Greek also) and instant oatmeal.  The tables were not wiped off but it was very late in the service.  An employee did not come out and start taking away food until 5 -10 minutes or so after closing time.  We appreciated this fact since we had arrived so late for breakfast.We asked for a late check-out (didn't actually end up needing it) and were told we could check-out as late as 2:00pm. Both clerks we spoke to on Friday evening and Saturday morning were very pleasant.The only complaint for our stay was a faulty alarm clock.  It was blinking upon our arrival and I set it.  However, it went dark after a short time and then started blinking again.  Not sure what the problem was but I reported it to the front desk on our departure.Overall, I would say that this is one of the better HIE hotels and definitely one of the best values in the Energy Corridor areas.  We have stayed at the nearby Embassy Suites on the Katy Freeway which is very nice but quite a bit higher in price.  Will definitely stay at this HIE, if back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My oldest son and I stayed here this past weekend while helping my daughter move to a new apartment in the Energy Corridor area.  We booked this hotel at the last minute on a Friday evening after calling a few hotels in the area and looking at reviews online.  We obtained a very reasonable rate by calling the hotel directly.  Upon checking in late that evening, I was pleasantly surprised to see how large the room was compared to other HIE hotels I have stayed at in the past.  We had two queen beds with ample room including a chair and ottoman, a separate desk area as well as a fairly large refrigerator and microwave tucked away in a cabinet.  These rooms do not seem as narrow as some other HIE hotels.  The bathroom was also a reasonable size with some added shelving to help keep toiletries from crowding the countertop.  I was also able to obtain a shower cap from the front desk with no problem.
+The hotel sits back off the road next to another hotel/extended stay.  Remarkably, it was very quiet.  We had a second floor room towards the end of the hallway.  There was virtually no outside noise from either the hallway or outside the hotel.  I don't believe the HIE hotel was full but it was very quiet the entire night as well as the next morning.
+Security did not seem to be an issue....My oldest son and I stayed here this past weekend while helping my daughter move to a new apartment in the Energy Corridor area.  We booked this hotel at the last minute on a Friday evening after calling a few hotels in the area and looking at reviews online.  We obtained a very reasonable rate by calling the hotel directly.  Upon checking in late that evening, I was pleasantly surprised to see how large the room was compared to other HIE hotels I have stayed at in the past.  We had two queen beds with ample room including a chair and ottoman, a separate desk area as well as a fairly large refrigerator and microwave tucked away in a cabinet.  These rooms do not seem as narrow as some other HIE hotels.  The bathroom was also a reasonable size with some added shelving to help keep toiletries from crowding the countertop.  I was also able to obtain a shower cap from the front desk with no problem.The hotel sits back off the road next to another hotel/extended stay.  Remarkably, it was very quiet.  We had a second floor room towards the end of the hallway.  There was virtually no outside noise from either the hallway or outside the hotel.  I don't believe the HIE hotel was full but it was very quiet the entire night as well as the next morning.Security did not seem to be an issue.  The front doors were locked when we checked in but we were buzzed in promptly when the front desk clerk recognized we were a late check-in.  The parking lot was well-lit and we felt like the car was fairly safe in the lot.Breakfast was actually a pleasant surprise.  We did not go down for breakfast until 9:50am on Saturday (open till 10:00am).  I fully expected there to be little available.  There was a large family reunion type group of people in the dining area.  Everything was fully stocked!  All hot items (cheese omelets, sausages) were available as well as everything else (including the pancakes and cinnamon rolls).  Healthy options were also available including fruit, yogurt (Greek also) and instant oatmeal.  The tables were not wiped off but it was very late in the service.  An employee did not come out and start taking away food until 5 -10 minutes or so after closing time.  We appreciated this fact since we had arrived so late for breakfast.We asked for a late check-out (didn't actually end up needing it) and were told we could check-out as late as 2:00pm. Both clerks we spoke to on Friday evening and Saturday morning were very pleasant.The only complaint for our stay was a faulty alarm clock.  It was blinking upon our arrival and I set it.  However, it went dark after a short time and then started blinking again.  Not sure what the problem was but I reported it to the front desk on our departure.Overall, I would say that this is one of the better HIE hotels and definitely one of the best values in the Energy Corridor areas.  We have stayed at the nearby Embassy Suites on the Katy Freeway which is very nice but quite a bit higher in price.  Will definitely stay at this HIE, if back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r221961343-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221961343</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Suite Life on the West End</t>
+  </si>
+  <si>
+    <t>This is a lovely property just north of Westheimer and off of Hwy 6.  It is within a short walking distance of several restaurants and shopping.  We were upgraded to a suite at no additional cost and liked it so much we stayed an extra night.  The staff was very helpful when we arrived as we had issues with the wireless internet.  The issue was resolved and had no further problems.  Our room came with a micro-fridge and sink and was stocked with paper towels, bowls, flatware and extra during cups that made us feel at home.  A very unexpected touch that should be recommended to other innkeepers.  Breakfast was included and was very generous.  We will probably make this our hotel of choice when staying in the Energy Corridor area of Houston in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a lovely property just north of Westheimer and off of Hwy 6.  It is within a short walking distance of several restaurants and shopping.  We were upgraded to a suite at no additional cost and liked it so much we stayed an extra night.  The staff was very helpful when we arrived as we had issues with the wireless internet.  The issue was resolved and had no further problems.  Our room came with a micro-fridge and sink and was stocked with paper towels, bowls, flatware and extra during cups that made us feel at home.  A very unexpected touch that should be recommended to other innkeepers.  Breakfast was included and was very generous.  We will probably make this our hotel of choice when staying in the Energy Corridor area of Houston in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r220910348-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220910348</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Perfect for our needs</t>
+  </si>
+  <si>
+    <t>As we are thinking of moving to Houston, we needed a few days to have a look round so chose this hotel purely on location.Excellent welcome was slightly spoiled by one of the receptionists eating a salad at the desk, but very friendly.  Despite being nearish to a busy road, our room was very quiet.  The bed comfortable and the room clean.  Seemed a little outdated but very good over all.We had breakfast there on three mornings.  All good.  There was a good choice of food, but better to go earlier rather than later.  We didn't swim but the pool looked very clean and inviting.  Altogether a good experience and I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>As we are thinking of moving to Houston, we needed a few days to have a look round so chose this hotel purely on location.Excellent welcome was slightly spoiled by one of the receptionists eating a salad at the desk, but very friendly.  Despite being nearish to a busy road, our room was very quiet.  The bed comfortable and the room clean.  Seemed a little outdated but very good over all.We had breakfast there on three mornings.  All good.  There was a good choice of food, but better to go earlier rather than later.  We didn't swim but the pool looked very clean and inviting.  Altogether a good experience and I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r186256162-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186256162</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>Spend some money and take care of the little things</t>
+  </si>
+  <si>
+    <t>Just spent the weekend at your hotel again and I just have to finally speak up - To the owner, you keep the holiday inn standards of clean bathrooms, but spend a bit of money on 1) Decent toilet paper - I stay at other HI all the time and they have somewhat decent toilet paper. Your's is like sandpaper. You've actually downgraded over the past year.  Cheap Cheap Cheap2) Fidx the ice machine on floor 4.  It's been out of commission over 2 years3) Fix the morning beverage dispenser - the Cranberry hasn't worked for over a year.4) Fix your linens.  The mattress pad is so cheap, it slips all over so you wake up and the sheets have come off the bed.This hotel is in a highly populated area for travelers and has plenty of business.  I would think you would want to take that extra step to insure that we return, rather than go to the other hotels across the street.  I'm beginnig to think I'll pay the extra $10 a night for these little things.Switching to the Hampton Inn Across the street as of today.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2013</t>
+  </si>
+  <si>
+    <t>Just spent the weekend at your hotel again and I just have to finally speak up - To the owner, you keep the holiday inn standards of clean bathrooms, but spend a bit of money on 1) Decent toilet paper - I stay at other HI all the time and they have somewhat decent toilet paper. Your's is like sandpaper. You've actually downgraded over the past year.  Cheap Cheap Cheap2) Fidx the ice machine on floor 4.  It's been out of commission over 2 years3) Fix the morning beverage dispenser - the Cranberry hasn't worked for over a year.4) Fix your linens.  The mattress pad is so cheap, it slips all over so you wake up and the sheets have come off the bed.This hotel is in a highly populated area for travelers and has plenty of business.  I would think you would want to take that extra step to insure that we return, rather than go to the other hotels across the street.  I'm beginnig to think I'll pay the extra $10 a night for these little things.Switching to the Hampton Inn Across the street as of today.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r184539789-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184539789</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>Good hotel - Bad internet</t>
+  </si>
+  <si>
+    <t>Let me start by saying that the staff at this hotel is great. Mary at the front desk is super professional. As a platinum ambassador with IHG she went above and beyond to make my stay a pleasant one. The hotel is clean and in a good location. My only complaint is that the Wi-Fi is a little sketchy. It will commonly drop out and stop working. As this is a business hotel I feel that more attention should be paid to it. At one point the internet went out for several hours. When I called the front desk they told me I would need to contact the internet company. That is like the elevator not working and them asking me to call the repair man. Apparently this was at the request of the internet company and not the hotel. I refuse to call as this is an advertised amenity. If they can't provide internet with out wasting the time of the guests then take it off of the features list. I imagine I am not the only business class guest to find this a little ridiculous. Otherwise this is a great hotel. I would stay again if it was not for business. Internet is too important for me.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying that the staff at this hotel is great. Mary at the front desk is super professional. As a platinum ambassador with IHG she went above and beyond to make my stay a pleasant one. The hotel is clean and in a good location. My only complaint is that the Wi-Fi is a little sketchy. It will commonly drop out and stop working. As this is a business hotel I feel that more attention should be paid to it. At one point the internet went out for several hours. When I called the front desk they told me I would need to contact the internet company. That is like the elevator not working and them asking me to call the repair man. Apparently this was at the request of the internet company and not the hotel. I refuse to call as this is an advertised amenity. If they can't provide internet with out wasting the time of the guests then take it off of the features list. I imagine I am not the only business class guest to find this a little ridiculous. Otherwise this is a great hotel. I would stay again if it was not for business. Internet is too important for me.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r183948303-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183948303</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>A hidden gem</t>
+  </si>
+  <si>
+    <t>when i had a problem  with the Courtyard down the street i selected this as a plan B- it is now my plan A. Rooms were large and comfortable, very clean and very helpful staff. Just outside your door you have two different places to eat and both offer carryout. I also had a meeting at the hotel. 20+ people and the room was excellent and set up just as requested. Prices were very acceptable, even though just of a very busy highway - did not pick up any road noise in the room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r179484607-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179484607</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Good value, recommend</t>
+  </si>
+  <si>
+    <t>I stayed two nights recently while visiting friends.  Everything was clean and well-kept and my room was very comfortable.  I used the fitness center and was happy to find towels, water and all the machines in working order.  Breakfast was better than I was expecting, loved the cinnamon rolls!  I thought the value for the price was very good and I would definitely stay at another Holiday Inn Express based on this experience.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r175941727-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175941727</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Great stay for Business</t>
+  </si>
+  <si>
+    <t>I frequently travel to Houston for business.  I was pleasantly surprised with this hidden gem!  The staff is one of the best I have experienced- very friendly and outgoing, and willing to help in any way.  The rooms are clean and modern, and the breakfast is the icing on the cinnamon roll!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r169547626-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169547626</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Nice stay, very clean!</t>
+  </si>
+  <si>
+    <t>Attended a 4 day family reunion at this property and the staff was very pleasant and helpful.  The rooms are super clean, the linens are all bright white and clean.  I watched a member of the housekeeping staff when my neighbor checked out,  she removed ALL the bedding, the shower curtain removed and replaced and the room thoroughly cleaned.They are learning from the competition all the right things.  The breakfast was very good and tasty with pancakes, cold cereals, instant oatmeal, eggs, bacon, and plenty of room to eat.The meeting room easily held the 60+ of us for our meet and greet and banquet in comfort.There is a security guard walking around the property all night and he is caring, polite, helpful, and dedicated making parking in the well lighted lot worry free.  For a Ham radio operator that's great.  I'd stay here again for sure!  There are plenty of very good restaurants within 500 feet of the hotel.  Very nice indeed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Attended a 4 day family reunion at this property and the staff was very pleasant and helpful.  The rooms are super clean, the linens are all bright white and clean.  I watched a member of the housekeeping staff when my neighbor checked out,  she removed ALL the bedding, the shower curtain removed and replaced and the room thoroughly cleaned.They are learning from the competition all the right things.  The breakfast was very good and tasty with pancakes, cold cereals, instant oatmeal, eggs, bacon, and plenty of room to eat.The meeting room easily held the 60+ of us for our meet and greet and banquet in comfort.There is a security guard walking around the property all night and he is caring, polite, helpful, and dedicated making parking in the well lighted lot worry free.  For a Ham radio operator that's great.  I'd stay here again for sure!  There are plenty of very good restaurants within 500 feet of the hotel.  Very nice indeed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r164909359-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164909359</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>This HIE is on par with all the others.</t>
+  </si>
+  <si>
+    <t>This hotel is average for the HIE line. The room was clean. The employees were friendly. The area is a little off the main road so it's not too heavily travelled but it's also a little tough when exiting to the thoroughfare. I only have two complaints with the first being the price. It's a little pricier than other HIE's but that could be due to its location in the Energy Corridor. Second, the top shelf in the recessed shelving in the bathroom needs to be cleaned. I realize that it is at least 6 feet high and there is nothing stored there but with me being 6'4" and able to see it, it's a little disgusting looking at other people's hairs and such remaining there. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is average for the HIE line. The room was clean. The employees were friendly. The area is a little off the main road so it's not too heavily travelled but it's also a little tough when exiting to the thoroughfare. I only have two complaints with the first being the price. It's a little pricier than other HIE's but that could be due to its location in the Energy Corridor. Second, the top shelf in the recessed shelving in the bathroom needs to be cleaned. I realize that it is at least 6 feet high and there is nothing stored there but with me being 6'4" and able to see it, it's a little disgusting looking at other people's hairs and such remaining there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r160261393-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160261393</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Typical HI Express..</t>
+  </si>
+  <si>
+    <t>It’s a typically HI Express……sufficient for a place to lay your head.  There are several dining options in the immediate area and the property is fairly new so everything was clean……I’d stay there again….MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded July 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2013</t>
+  </si>
+  <si>
+    <t>It’s a typically HI Express……sufficient for a place to lay your head.  There are several dining options in the immediate area and the property is fairly new so everything was clean……I’d stay there again….More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1079,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1111,1558 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>153</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>163</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
+        <v>171</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>172</v>
+      </c>
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
+        <v>179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>193</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>219</v>
+      </c>
+      <c r="X24" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_324.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_324.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="334">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r596467705-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>3627162</t>
+  </si>
+  <si>
+    <t>596467705</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Good location, great staff</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the hotel. They recently changed ownership and they are busy getting it up to scratch. The staff is very friendly and helpful. Unfortunately I had to change room once because of leakage through the roof.The breakfast was not always stocked so well, but I like the yoghurts they have.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kevin L, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at the hotel. They recently changed ownership and they are busy getting it up to scratch. The staff is very friendly and helpful. Unfortunately I had to change room once because of leakage through the roof.The breakfast was not always stocked so well, but I like the yoghurts they have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r589836086-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589836086</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Nice rooms</t>
+  </si>
+  <si>
+    <t>It’s has really nice rooms . I love the location and the breakfast was great. That’s the best breakfast I have had in any hotel . I like how respectful and nice the workers are. I had a great stay especially considering it’s not too priceyMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Kevin L, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
+    <t>It’s has really nice rooms . I love the location and the breakfast was great. That’s the best breakfast I have had in any hotel . I like how respectful and nice the workers are. I had a great stay especially considering it’s not too priceyMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r589338608-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>3627162</t>
-  </si>
-  <si>
     <t>589338608</t>
   </si>
   <si>
@@ -174,18 +231,6 @@
     <t>I came here sometime last year and it was okay but it was not as impressive as my recent stay last week . The reception was great , rooms were quite spacious and very neat . I absolutely loved my stay and i am definitely coming back again with my husband. I also love the location and scenery .MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Kevin L, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
-  </si>
-  <si>
     <t>I came here sometime last year and it was okay but it was not as impressive as my recent stay last week . The reception was great , rooms were quite spacious and very neat . I absolutely loved my stay and i am definitely coming back again with my husband. I also love the location and scenery .More</t>
   </si>
   <si>
@@ -246,6 +291,57 @@
     <t>Upon arrival, my coworker couldn't get into her room because there was someone in it. The receptionist mentioned that there were people that often sneak into rooms and secure the door until they are discovered. They also mentioned that there are non-guests that occupy the halls at times. As the night was sold out- they called 'security' aka the maintenance man at home to have the guests removed. Somehow they 'found' a room for us 15 minutes later. 1. Did you even clean it? 2. RANDOM PEOPLE IN YOUR HALLS? Are you kidding me? We chose to leave after 45 minutes and they will not offer us a refund because they say it was a computer 'glitch'. I call BS. Not safe.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r533753307-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533753307</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Bad Customer Reps</t>
+  </si>
+  <si>
+    <t>I stayed here because my husband, daughter , and myself were waiting to move into our new home which unfortunately was not ready as stated in our " moving agreement". This process was only suppose to be a couple of days but turned into a couple of weeks. At first it started out fairly well, and about 3 or 4 days in things got irritating. In all fairness our realtor kind of drug our process out forever, but at the point things like our access cards would deactivate every time we left out the building. So every time we reentered our cards had to be reactivated, which got very annoying when the card would stop working first thing in the morning and then again in the evening. One night my husband had to call me and tell me to ask them to let him into the lobby doors. The front desk attendant just starred at home when his card wouldn't work and did not access the doors. Some type of work outside of our room window 2 and 3 o'clock in the morning. Vending machine, dryers taking money no way to finish laundry. They over charged my husbands card two days ($264.00) and said it was due to a system update. I called to extend our stay for what I believed to be our last day @ 815 a.m. and was told he couldn't extend because they we already booked....I stayed here because my husband, daughter , and myself were waiting to move into our new home which unfortunately was not ready as stated in our " moving agreement". This process was only suppose to be a couple of days but turned into a couple of weeks. At first it started out fairly well, and about 3 or 4 days in things got irritating. In all fairness our realtor kind of drug our process out forever, but at the point things like our access cards would deactivate every time we left out the building. So every time we reentered our cards had to be reactivated, which got very annoying when the card would stop working first thing in the morning and then again in the evening. One night my husband had to call me and tell me to ask them to let him into the lobby doors. The front desk attendant just starred at home when his card wouldn't work and did not access the doors. Some type of work outside of our room window 2 and 3 o'clock in the morning. Vending machine, dryers taking money no way to finish laundry. They over charged my husbands card two days ($264.00) and said it was due to a system update. I called to extend our stay for what I believed to be our last day @ 815 a.m. and was told he couldn't extend because they we already booked. When I complained he got defensive and said" do you think I'm rude". I said sir I'm just having a lot of trouble with the customer service and he said, "with me", I said sir I don't know you. all in all it was just a bad experience. We have a dog, which they were gracious enough to let us keep in the room. Every evening while walking her the establishment next door (Homeland Motel ??) had a lot of suspicious traffic which all overflowed into the Holiday Inn's parking lot. My daughter and I witnessed what I do believe was a drug deal in the back parking lot. I would not allow my daughter to walk the dog alone after that. A lot of ugly foot traffic through the parking lot after dark. So no I will not visit again or recommend to anyone. Bad experience Bad customer service. The bright part of this visit was housekeeping, wonderful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here because my husband, daughter , and myself were waiting to move into our new home which unfortunately was not ready as stated in our " moving agreement". This process was only suppose to be a couple of days but turned into a couple of weeks. At first it started out fairly well, and about 3 or 4 days in things got irritating. In all fairness our realtor kind of drug our process out forever, but at the point things like our access cards would deactivate every time we left out the building. So every time we reentered our cards had to be reactivated, which got very annoying when the card would stop working first thing in the morning and then again in the evening. One night my husband had to call me and tell me to ask them to let him into the lobby doors. The front desk attendant just starred at home when his card wouldn't work and did not access the doors. Some type of work outside of our room window 2 and 3 o'clock in the morning. Vending machine, dryers taking money no way to finish laundry. They over charged my husbands card two days ($264.00) and said it was due to a system update. I called to extend our stay for what I believed to be our last day @ 815 a.m. and was told he couldn't extend because they we already booked....I stayed here because my husband, daughter , and myself were waiting to move into our new home which unfortunately was not ready as stated in our " moving agreement". This process was only suppose to be a couple of days but turned into a couple of weeks. At first it started out fairly well, and about 3 or 4 days in things got irritating. In all fairness our realtor kind of drug our process out forever, but at the point things like our access cards would deactivate every time we left out the building. So every time we reentered our cards had to be reactivated, which got very annoying when the card would stop working first thing in the morning and then again in the evening. One night my husband had to call me and tell me to ask them to let him into the lobby doors. The front desk attendant just starred at home when his card wouldn't work and did not access the doors. Some type of work outside of our room window 2 and 3 o'clock in the morning. Vending machine, dryers taking money no way to finish laundry. They over charged my husbands card two days ($264.00) and said it was due to a system update. I called to extend our stay for what I believed to be our last day @ 815 a.m. and was told he couldn't extend because they we already booked. When I complained he got defensive and said" do you think I'm rude". I said sir I'm just having a lot of trouble with the customer service and he said, "with me", I said sir I don't know you. all in all it was just a bad experience. We have a dog, which they were gracious enough to let us keep in the room. Every evening while walking her the establishment next door (Homeland Motel ??) had a lot of suspicious traffic which all overflowed into the Holiday Inn's parking lot. My daughter and I witnessed what I do believe was a drug deal in the back parking lot. I would not allow my daughter to walk the dog alone after that. A lot of ugly foot traffic through the parking lot after dark. So no I will not visit again or recommend to anyone. Bad experience Bad customer service. The bright part of this visit was housekeeping, wonderful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r401109708-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401109708</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Great property but bad check-in experience this time</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel numerous times, and most visits have been very pleasant and at a good price. This would be my feeling during this stay, but for the abominable check-in experience. I arrived at about 5:30 pm with a reserved room.  Nothing was ready. Iwas told it would be a 10 minute wait. After 25 minutes, I checked in with the front desk and they said that the clearners would call when it was ready and they had not called. I gave up and decided to hepl the cleaners and took the elevator up to the room. It was completely cleaned and ready, but it was a handicapped room, which I abhor. I returned to the front desk and complained about being given a handicapped room when I explicitly stated I didn't want one. They replied that the fact that it was a handicapped room was not in their data base. Huh? They don't even know which room numbers are for handicapped rooms?  Nonetheless, they had another room of equivalent class that they immediately offered me. Huh???? They had a room ready to go, but made me wait 25 minutes? What the h$%ll was going on?  There was obviously an available room when I checked in, and they made me wait??  Hardly any apology. I'll think twice before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel numerous times, and most visits have been very pleasant and at a good price. This would be my feeling during this stay, but for the abominable check-in experience. I arrived at about 5:30 pm with a reserved room.  Nothing was ready. Iwas told it would be a 10 minute wait. After 25 minutes, I checked in with the front desk and they said that the clearners would call when it was ready and they had not called. I gave up and decided to hepl the cleaners and took the elevator up to the room. It was completely cleaned and ready, but it was a handicapped room, which I abhor. I returned to the front desk and complained about being given a handicapped room when I explicitly stated I didn't want one. They replied that the fact that it was a handicapped room was not in their data base. Huh? They don't even know which room numbers are for handicapped rooms?  Nonetheless, they had another room of equivalent class that they immediately offered me. Huh???? They had a room ready to go, but made me wait 25 minutes? What the h$%ll was going on?  There was obviously an available room when I checked in, and they made me wait??  Hardly any apology. I'll think twice before staying here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r385609407-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
@@ -315,6 +411,48 @@
     <t>I stayed there for one night.  They  charged me for 2.  I have been trying to resolve this for a week now.  The manager refuses to talk to me.  The front desk keeps saying she is not there or too busy.  I keep leaving messages and calling back.  However, no resolution, no call back.  I travel for business, and the customer service I experienced is horrendous.  If you have to fill out expense reports or care if you are double charged, do not stay at this hotel--they don't care!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r365266699-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365266699</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great hotel, but far from downtown</t>
+  </si>
+  <si>
+    <t>We misread the map when choosing this hotel, and it was much farther from the downtown area than we thought.  The hotel is fantastic, the staff is wonderful, and we had a great stay there.  The breakfast is above average, and there is a Logan's Roadhouse right next door that is great for dinner.  Everything seems quite new, and it was not crowded at all..  However, if the activities you want to do in Houston involve the downtown area, I wouldn't stay here, only because Houston traffic is absolutely horrendous and it will take you a long time to get into town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r331007565-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331007565</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without notifying, deducted baseless charges. </t>
+  </si>
+  <si>
+    <t>Pretty helpful staff. Lovely rooms and service. While just one last experience spoilt its reputation for me atleast. Had checked in 13th October in room 222 and had noticed door lock latch broken. Stayed for 13 days. After checking out on 26th October, receptionist confirms all formalities cleared i.e. Rooms &amp; Payment. The next night, after i am out of Texas, i get a message for 20$ being deducted on the basis of a broken door lock. Completely Unreasonable and Unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Lopezm28, Loyalty Champion at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Pretty helpful staff. Lovely rooms and service. While just one last experience spoilt its reputation for me atleast. Had checked in 13th October in room 222 and had noticed door lock latch broken. Stayed for 13 days. After checking out on 26th October, receptionist confirms all formalities cleared i.e. Rooms &amp; Payment. The next night, after i am out of Texas, i get a message for 20$ being deducted on the basis of a broken door lock. Completely Unreasonable and Unacceptable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r327677811-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
@@ -357,9 +495,6 @@
     <t>First, this property was chosen for its proximity to family.  With that said, Holiday Inn Express properties are usually decent places to stay, and this one was no exception.  This one gave me a good rate, provided a comfortable, clean room and an decent complimentary breakfast.  The staff was congenial, professional and accommodating.  We will be staying there again when we return to visit that area of Houston.  There is one decided down side to the location.  It is located on one of the busiest streets in West Houston, and getting in or out of the hotel during rush hour requires some knowledge of the roadways.  The best way to exit the property during high traffic periods is to exit the property on Barker Oaks (away from Hwy. 6), and use Pipping Rock Lane (one block south of hotel) to cross or enter Hwy 6.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Lopezm28, Front Desk Lead at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded October 20, 2015</t>
   </si>
   <si>
@@ -387,9 +522,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Lopezm28, Lead Champion at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded August 3, 2015</t>
   </si>
   <si>
@@ -399,6 +531,51 @@
     <t>Hotel tuck behind strip mall hard to located, I didn't see any hotel sign on main road,we check in really late-after 11pm , main entry door was lock, have to wait for hotel staff let us in... check in was little slow not the front desk fault the guy in front of us asking too many question took 15 mins before our turn to checkin, hotel and room  clean and well lit , breakfast was good, overall we have very pleasant stay....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r282664874-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282664874</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>A Little Disappointed</t>
+  </si>
+  <si>
+    <t>My wife and I stay at this location several times a year to visit family and usually have pleasant experiences.  This time was different. First there was a large wedding party going on that was very noisy and the internet service was down for the entire weekend which resulted in me not being able to do some catch up work.  When I asked the person at the front desk if there was anything going on with their internet, the reply was, “For some reason, lately our internet will not work on Apple devices? (???)  Now I’m no network expert but this excuse is pretty creative!  When I check out, after two nights stay, I again mentioned no internet service and asked for an adjustment.  No adjustment was made just an apology. While an apology was appreciated, a small discount or even a few additional reward points would have been more palatable since the interruption in service (which is built into the cost of the room) caused me to spend an additional four hours work when I returned home.  Holiday Inn…it’s the big things as well as the small things that make people return.  You missed the mark with the small thing this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Lopezm28, Lead Champion at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded June 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stay at this location several times a year to visit family and usually have pleasant experiences.  This time was different. First there was a large wedding party going on that was very noisy and the internet service was down for the entire weekend which resulted in me not being able to do some catch up work.  When I asked the person at the front desk if there was anything going on with their internet, the reply was, “For some reason, lately our internet will not work on Apple devices? (???)  Now I’m no network expert but this excuse is pretty creative!  When I check out, after two nights stay, I again mentioned no internet service and asked for an adjustment.  No adjustment was made just an apology. While an apology was appreciated, a small discount or even a few additional reward points would have been more palatable since the interruption in service (which is built into the cost of the room) caused me to spend an additional four hours work when I returned home.  Holiday Inn…it’s the big things as well as the small things that make people return.  You missed the mark with the small thing this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r265344285-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265344285</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>Great One Night Stay</t>
+  </si>
+  <si>
+    <t>Great hotel. Very clean property. Staff was very accommodating. Breakfast was the standard holiday inn express breakfast. Hotel is close to several restaurants within walking distance. Traffic was congested on our drive in on highway 6, but it was a great stay for one night.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r261159874-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
@@ -460,6 +637,54 @@
   </si>
   <si>
     <t>First the good news. Check in: just fine. Room: clean. Restaurant options: multiple nearby, such as Joe's Crab Shack and Logan's Roadhouse. So why the low rating? This is the first hotel I have stayed in where the alarm clock turns off with the lights. And no backup battery, so when you set the clock, then leave the room... reset again. The business associate I was with had same experience with his room. I usually stay in Hilton or Carlson properties... so was really puzzled to have this experience. Especially with the years that Holiday Inn has been a brand. So while food options are great (including IHOP and Waffle House short drive away), my lasting impression for this location is a flashing clock display. Don't turn off the wall switch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r236645123-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>236645123</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Great, Clean Hotel &amp; Good Price</t>
+  </si>
+  <si>
+    <t>This hotel was absolutely one of the best Holiday Inn Express Hotel &amp; Suites I've stayed in. Everything from the check-in experience, to check-out was awesome! The front staff was pleasant and helpful regarding getting around town. This location wasn't close to the Galleria area, but there was lots of other shopping and restaurants near the hotel. The rooms were very spacious and clean, which is very important to me. Great price, great hotel, great experience!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r227954274-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227954274</t>
+  </si>
+  <si>
+    <t>09/09/2014</t>
+  </si>
+  <si>
+    <t>Well worth the $100.</t>
+  </si>
+  <si>
+    <t>Great hotel and excellent location. Walking distance to excellent restaurants and convienences. Staff is exceptionally friendly and helpful. Hotel and room is very clean, top to bottom. 9.5 foot ceilings. Wonderfully comfortable bed with world class pillows. Roomy bathroom with large thirsty towels. Use the hotel bar soap!! Excellent lather.. Easy to control room temperature. Very quite room. Noticed no interior or exterior noise.  One of the best complimentary breakfast bars I have experienced. Breakfast attendant always at station. Many  Many selections. Clean breakfast area. Good exercise room, but could use a little more equipment. NO REAL COMPLAINTS ABOUT THIS HOTEL!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>MARIA I, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Great hotel and excellent location. Walking distance to excellent restaurants and convienences. Staff is exceptionally friendly and helpful. Hotel and room is very clean, top to bottom. 9.5 foot ceilings. Wonderfully comfortable bed with world class pillows. Roomy bathroom with large thirsty towels. Use the hotel bar soap!! Excellent lather.. Easy to control room temperature. Very quite room. Noticed no interior or exterior noise.  One of the best complimentary breakfast bars I have experienced. Breakfast attendant always at station. Many  Many selections. Clean breakfast area. Good exercise room, but could use a little more equipment. NO REAL COMPLAINTS ABOUT THIS HOTEL!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r222997150-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
@@ -523,6 +748,48 @@
     <t>As we are thinking of moving to Houston, we needed a few days to have a look round so chose this hotel purely on location.Excellent welcome was slightly spoiled by one of the receptionists eating a salad at the desk, but very friendly.  Despite being nearish to a busy road, our room was very quiet.  The bed comfortable and the room clean.  Seemed a little outdated but very good over all.We had breakfast there on three mornings.  All good.  There was a good choice of food, but better to go earlier rather than later.  We didn't swim but the pool looked very clean and inviting.  Altogether a good experience and I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r211525434-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211525434</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Beautiful experience</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a church convention from May 28th to 30th. My flight came in a bit early so I called the hotel to see if I can check inn early without extra cost and I was told yes my room is ready. Check in was very quick, room was spacious and beautiful, comfortable bed beautiful bathroom. Everything look new and very clean. I want to thank Mary for all her help with room, information and getting me the church deal I was unaware of. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>MARIA I, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a church convention from May 28th to 30th. My flight came in a bit early so I called the hotel to see if I can check inn early without extra cost and I was told yes my room is ready. Check in was very quick, room was spacious and beautiful, comfortable bed beautiful bathroom. Everything look new and very clean. I want to thank Mary for all her help with room, information and getting me the church deal I was unaware of. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r210691234-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210691234</t>
+  </si>
+  <si>
+    <t>06/17/2014</t>
+  </si>
+  <si>
+    <t>Service was great!</t>
+  </si>
+  <si>
+    <t>I must say i chose this hotel through hotwire and im glad i did. Upon arriving to Texas for the first time i have to say it was a great experience at this location staff was great, service and breakfast was also good. Even though there isn't too much to do in this area i thought it had great access to major roadways. Definately would like to revisit.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r186256162-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
@@ -541,9 +808,6 @@
     <t>November 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded December 15, 2013</t>
   </si>
   <si>
@@ -586,24 +850,66 @@
     <t>when i had a problem  with the Courtyard down the street i selected this as a plan B- it is now my plan A. Rooms were large and comfortable, very clean and very helpful staff. Just outside your door you have two different places to eat and both offer carryout. I also had a meeting at the hotel. 20+ people and the room was excellent and set up just as requested. Prices were very acceptable, even though just of a very busy highway - did not pick up any road noise in the room</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r180195727-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180195727</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Unexpected very large rooms!</t>
+  </si>
+  <si>
+    <t>There is not much in the way of hotels or motels to pick from in this specific area. And certainly almost nothing that is a "name brand" nor of a newish construction. I have stayed in many Holiday Inn Express across the country, usually for business.They are always clean and functional and the 100% non-smoking policy in the newer HI Express locations is a nice plus, or a good discipline (depending on your particular challenge!). The big surprise in this location was the size of the rooms....if you travel by yourself you could "get lost". If there are two or more of you, you will not risk bumping into each other. Bed linens a cut above. AC/heatcontrolled in the room. Breakfast is standard HI Express freebie. Front desk is "young" and not well versed on area, but very accommmodating for special guest requests. Good weekend price deals if you are in town for a wedding or other event. I was visiting Houston with another couple who usually stays 20 miles less convenient, at a higher end major brand that costs more, but they stayed here because they had the car and did not want to leave me stranded. They too were surprised at the size of their room and accoutraments. Now this is their hotel choice when heading to Houston. Best restaurant choice directly across the street is a Chili's.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>There is not much in the way of hotels or motels to pick from in this specific area. And certainly almost nothing that is a "name brand" nor of a newish construction. I have stayed in many Holiday Inn Express across the country, usually for business.They are always clean and functional and the 100% non-smoking policy in the newer HI Express locations is a nice plus, or a good discipline (depending on your particular challenge!). The big surprise in this location was the size of the rooms....if you travel by yourself you could "get lost". If there are two or more of you, you will not risk bumping into each other. Bed linens a cut above. AC/heatcontrolled in the room. Breakfast is standard HI Express freebie. Front desk is "young" and not well versed on area, but very accommmodating for special guest requests. Good weekend price deals if you are in town for a wedding or other event. I was visiting Houston with another couple who usually stays 20 miles less convenient, at a higher end major brand that costs more, but they stayed here because they had the car and did not want to leave me stranded. They too were surprised at the size of their room and accoutraments. Now this is their hotel choice when heading to Houston. Best restaurant choice directly across the street is a Chili's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r179508200-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>179508200</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Convenient hotel near West Oak Mall</t>
+  </si>
+  <si>
+    <t>Hotel offers best location on Highway 6 that's close to such big oil companies like Exxon, Chevron....it's also five minute from West Oak Mall. Room was clean, spacious, and comfortable. Hotel is fairly new with all modern amenities It also offers reasonable rate for compatible hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Hotel &amp; Suites Houston Energy Corridor-W Oaks, responded to this reviewResponded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2013</t>
+  </si>
+  <si>
+    <t>Hotel offers best location on Highway 6 that's close to such big oil companies like Exxon, Chevron....it's also five minute from West Oak Mall. Room was clean, spacious, and comfortable. Hotel is fairly new with all modern amenities It also offers reasonable rate for compatible hotels in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r179484607-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
     <t>179484607</t>
   </si>
   <si>
-    <t>10/02/2013</t>
-  </si>
-  <si>
     <t>Good value, recommend</t>
   </si>
   <si>
     <t>I stayed two nights recently while visiting friends.  Everything was clean and well-kept and my room was very comfortable.  I used the fitness center and was happy to find towels, water and all the machines in working order.  Breakfast was better than I was expecting, loved the cinnamon rolls!  I thought the value for the price was very good and I would definitely stay at another Holiday Inn Express based on this experience.</t>
   </si>
   <si>
-    <t>September 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r175941727-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
@@ -637,13 +943,47 @@
     <t>Attended a 4 day family reunion at this property and the staff was very pleasant and helpful.  The rooms are super clean, the linens are all bright white and clean.  I watched a member of the housekeeping staff when my neighbor checked out,  she removed ALL the bedding, the shower curtain removed and replaced and the room thoroughly cleaned.They are learning from the competition all the right things.  The breakfast was very good and tasty with pancakes, cold cereals, instant oatmeal, eggs, bacon, and plenty of room to eat.The meeting room easily held the 60+ of us for our meet and greet and banquet in comfort.There is a security guard walking around the property all night and he is caring, polite, helpful, and dedicated making parking in the well lighted lot worry free.  For a Ham radio operator that's great.  I'd stay here again for sure!  There are plenty of very good restaurants within 500 feet of the hotel.  Very nice indeed!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r167731281-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167731281</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel at a Fair Price</t>
+  </si>
+  <si>
+    <t>I had been looking for a reasonable hotel in this vicinity of Houston for the past year, as I have periodic business in this area.  I have tried many of the neighboring properties, and this is by far my favorite.  The room is spacious and has a fast internet connection (although it is part of the DirecTV satellite system, and flakes out for a few minutes when a large thunderstorm passes through).  The bed is exceptionally comfortable, and they have some of the best pillows of any hotel I have stayed at in a long time.  Most hotel pillows are too firm for me, and give me a stuff neck.  There are two types to choose from on the bed, and they should make any sleeper happy and comfortable.  The shower is a large shower head that sprays a rain-like cascade (which I like(, and the bathtub itself is ample.  The bathroom itself is well layed out, and there is enough room to use the facilities with the door open or closed.  I say this to indicate that the layout is not cramped at all.
+The breakfast is modest but good, and makes it possible to get some decent food before heading out.  The eating area is spacious and there is no problem finding a place to eat, even during the busy time in the morning on a week day.  
+There are a number of restaurants of all types within...I had been looking for a reasonable hotel in this vicinity of Houston for the past year, as I have periodic business in this area.  I have tried many of the neighboring properties, and this is by far my favorite.  The room is spacious and has a fast internet connection (although it is part of the DirecTV satellite system, and flakes out for a few minutes when a large thunderstorm passes through).  The bed is exceptionally comfortable, and they have some of the best pillows of any hotel I have stayed at in a long time.  Most hotel pillows are too firm for me, and give me a stuff neck.  There are two types to choose from on the bed, and they should make any sleeper happy and comfortable.  The shower is a large shower head that sprays a rain-like cascade (which I like(, and the bathtub itself is ample.  The bathroom itself is well layed out, and there is enough room to use the facilities with the door open or closed.  I say this to indicate that the layout is not cramped at all.The breakfast is modest but good, and makes it possible to get some decent food before heading out.  The eating area is spacious and there is no problem finding a place to eat, even during the busy time in the morning on a week day.  There are a number of restaurants of all types within walking distance of the hotel, and the area appears quite safe.  As a single woman traveling often on business, I am very conscious of safety, and I feel very safe in this hotel and walking back and forth at night to the nearby restaurants.I will definitely stay here again when I need to be in this part of Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had been looking for a reasonable hotel in this vicinity of Houston for the past year, as I have periodic business in this area.  I have tried many of the neighboring properties, and this is by far my favorite.  The room is spacious and has a fast internet connection (although it is part of the DirecTV satellite system, and flakes out for a few minutes when a large thunderstorm passes through).  The bed is exceptionally comfortable, and they have some of the best pillows of any hotel I have stayed at in a long time.  Most hotel pillows are too firm for me, and give me a stuff neck.  There are two types to choose from on the bed, and they should make any sleeper happy and comfortable.  The shower is a large shower head that sprays a rain-like cascade (which I like(, and the bathtub itself is ample.  The bathroom itself is well layed out, and there is enough room to use the facilities with the door open or closed.  I say this to indicate that the layout is not cramped at all.
+The breakfast is modest but good, and makes it possible to get some decent food before heading out.  The eating area is spacious and there is no problem finding a place to eat, even during the busy time in the morning on a week day.  
+There are a number of restaurants of all types within...I had been looking for a reasonable hotel in this vicinity of Houston for the past year, as I have periodic business in this area.  I have tried many of the neighboring properties, and this is by far my favorite.  The room is spacious and has a fast internet connection (although it is part of the DirecTV satellite system, and flakes out for a few minutes when a large thunderstorm passes through).  The bed is exceptionally comfortable, and they have some of the best pillows of any hotel I have stayed at in a long time.  Most hotel pillows are too firm for me, and give me a stuff neck.  There are two types to choose from on the bed, and they should make any sleeper happy and comfortable.  The shower is a large shower head that sprays a rain-like cascade (which I like(, and the bathtub itself is ample.  The bathroom itself is well layed out, and there is enough room to use the facilities with the door open or closed.  I say this to indicate that the layout is not cramped at all.The breakfast is modest but good, and makes it possible to get some decent food before heading out.  The eating area is spacious and there is no problem finding a place to eat, even during the busy time in the morning on a week day.  There are a number of restaurants of all types within walking distance of the hotel, and the area appears quite safe.  As a single woman traveling often on business, I am very conscious of safety, and I feel very safe in this hotel and walking back and forth at night to the nearby restaurants.I will definitely stay here again when I need to be in this part of Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r164966251-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164966251</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Stayed  two times at this hotel and will stay again next time I am in Houston. Nice inner lobby and breakfast room. I had problem with the lights in room and the lights did not come on when I enter so it was a bit scary coming into a dark room at night by yourself.  I did ask the front desk to let the housekeep staff know that I would appreciate the lights being on when I return to my room but that did to happened.  Maybe next time.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d3627162-r164909359-Holiday_Inn_Express_Hotel_Suites_Houston_Energy_Corridor_W_Oaks-Houston_Texas.html</t>
   </si>
   <si>
     <t>164909359</t>
-  </si>
-  <si>
-    <t>06/23/2013</t>
   </si>
   <si>
     <t>This HIE is on par with all the others.</t>
@@ -1220,7 +1560,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1228,14 +1568,14 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1287,35 +1627,31 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1331,7 +1667,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1340,49 +1676,49 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
-      <c r="P4" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1398,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1407,28 +1743,28 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>78</v>
       </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1441,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1463,7 +1799,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1472,45 +1808,49 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
       </c>
       <c r="O6" t="s">
         <v>53</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1526,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1535,28 +1875,30 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
         <v>3</v>
@@ -1569,13 +1911,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1591,7 +1933,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1600,34 +1942,34 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>3</v>
@@ -1635,12 +1977,8 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>105</v>
-      </c>
-      <c r="X8" t="s">
-        <v>106</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
         <v>107</v>
       </c>
@@ -1679,23 +2017,23 @@
         <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1747,19 +2085,19 @@
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>4</v>
@@ -1767,14 +2105,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>124</v>
-      </c>
-      <c r="X10" t="s">
-        <v>125</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -1790,7 +2124,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1799,43 +2133,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -1851,7 +2189,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1860,35 +2198,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -1904,7 +2252,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1913,49 +2261,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
         <v>140</v>
-      </c>
-      <c r="J13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" t="s">
-        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -1971,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1980,39 +2322,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
         <v>149</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>150</v>
       </c>
-      <c r="K14" t="s">
-        <v>151</v>
-      </c>
-      <c r="L14" t="s">
-        <v>152</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>153</v>
-      </c>
       <c r="O14" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -2028,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2037,45 +2389,47 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
         <v>156</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>157</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>158</v>
       </c>
-      <c r="L15" t="s">
-        <v>159</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2091,7 +2445,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2100,28 +2454,30 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="n">
         <v>4</v>
@@ -2133,10 +2489,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -2152,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2161,53 +2521,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="X17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y17" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
@@ -2223,7 +2579,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2232,25 +2588,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2264,7 +2620,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
@@ -2280,7 +2636,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2289,38 +2645,32 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
         <v>5</v>
       </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2331,7 +2681,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
@@ -2347,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2356,49 +2706,35 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
-        <v>193</v>
-      </c>
-      <c r="O20" t="s">
-        <v>173</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
@@ -2414,7 +2750,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2423,45 +2759,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>203</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
       <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>204</v>
+      </c>
+      <c r="X21" t="s">
+        <v>205</v>
+      </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -2477,7 +2817,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2486,31 +2826,31 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+      <c r="N22" t="s">
+        <v>212</v>
+      </c>
+      <c r="O22" t="s">
+        <v>213</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -2524,7 +2864,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
@@ -2540,7 +2880,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2549,49 +2889,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
@@ -2607,7 +2947,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2616,53 +2956,1085 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>3</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>219</v>
-      </c>
-      <c r="X24" t="s">
-        <v>220</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" t="s">
+        <v>245</v>
+      </c>
+      <c r="L27" t="s">
+        <v>246</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>250</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" t="s">
+        <v>252</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>255</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>256</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J29" t="s">
+        <v>258</v>
+      </c>
+      <c r="K29" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>261</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>262</v>
+      </c>
+      <c r="X29" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>265</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J30" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" t="s">
+        <v>268</v>
+      </c>
+      <c r="L30" t="s">
+        <v>269</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>261</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>272</v>
+      </c>
+      <c r="J31" t="s">
+        <v>273</v>
+      </c>
+      <c r="K31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>276</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>277</v>
+      </c>
+      <c r="J32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" t="s">
+        <v>279</v>
+      </c>
+      <c r="L32" t="s">
+        <v>280</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>281</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" t="s">
+        <v>285</v>
+      </c>
+      <c r="K33" t="s">
+        <v>286</v>
+      </c>
+      <c r="L33" t="s">
+        <v>287</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>292</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" t="s">
+        <v>299</v>
+      </c>
+      <c r="L35" t="s">
+        <v>300</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>301</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>302</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>304</v>
+      </c>
+      <c r="L36" t="s">
+        <v>305</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>308</v>
+      </c>
+      <c r="J37" t="s">
+        <v>309</v>
+      </c>
+      <c r="K37" t="s">
+        <v>310</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>255</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>314</v>
+      </c>
+      <c r="J38" t="s">
+        <v>315</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>317</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>318</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>319</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>320</v>
+      </c>
+      <c r="L39" t="s">
+        <v>321</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>322</v>
+      </c>
+      <c r="X39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57912</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
